--- a/Trab3/Tabela secante 2.2.xlsx
+++ b/Trab3/Tabela secante 2.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISEL\2223\LEIC\s2\AC\Trab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ammit\Desktop\ISEL\2223\LEIC\s2\AC\AC\Trab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA4C5D99-07E9-4ABE-BB5A-1616D0171531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B270B65-C466-4EAE-A2FF-D2A8B297A15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{070A9D18-D015-4E30-8F7F-1FD43C1A297B}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{070A9D18-D015-4E30-8F7F-1FD43C1A297B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Instrução</t>
   </si>
@@ -59,30 +59,6 @@
     <t>nWRL</t>
   </si>
   <si>
-    <t>A15 - A12</t>
-  </si>
-  <si>
-    <t>A11 - A8</t>
-  </si>
-  <si>
-    <t>A7 - A4</t>
-  </si>
-  <si>
-    <t>A3 - A0</t>
-  </si>
-  <si>
-    <t>D15 - D12</t>
-  </si>
-  <si>
-    <t>D11 - D8</t>
-  </si>
-  <si>
-    <t>D7 - D4</t>
-  </si>
-  <si>
-    <t>D3 - D0</t>
-  </si>
-  <si>
     <t>ldr r0, sym</t>
   </si>
   <si>
@@ -102,6 +78,90 @@
   </si>
   <si>
     <t>pop r3</t>
+  </si>
+  <si>
+    <t>r1 = 0x1000</t>
+  </si>
+  <si>
+    <t>r2 = 0x0155</t>
+  </si>
+  <si>
+    <t>r4 = 0x0003</t>
+  </si>
+  <si>
+    <t>sp = 0xA002</t>
+  </si>
+  <si>
+    <t>pc = 0x0000</t>
+  </si>
+  <si>
+    <t>0x0010</t>
+  </si>
+  <si>
+    <t>0x0002</t>
+  </si>
+  <si>
+    <t>0x3A12</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>0x2401</t>
+  </si>
+  <si>
+    <t>0x2402</t>
+  </si>
+  <si>
+    <t>0xB780</t>
+  </si>
+  <si>
+    <t>0x0005</t>
+  </si>
+  <si>
+    <t>0x0403</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+  </si>
+  <si>
+    <t>0x0006</t>
+  </si>
+  <si>
+    <t>0x0008</t>
+  </si>
+  <si>
+    <t>0x000A</t>
+  </si>
+  <si>
+    <t>0x000C</t>
+  </si>
+  <si>
+    <t>0x0C60</t>
+  </si>
+  <si>
+    <t>0x000E</t>
+  </si>
+  <si>
+    <t>0x1000</t>
+  </si>
+  <si>
+    <t>0x0155</t>
+  </si>
+  <si>
+    <t>0xA000</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>0x1002</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -158,16 +218,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -482,217 +548,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB7A44-6D86-485B-AE1C-DF1FE5842785}">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="G1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="N3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="4" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trab3/Tabela secante 2.2.xlsx
+++ b/Trab3/Tabela secante 2.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ammit\Desktop\ISEL\2223\LEIC\s2\AC\AC\Trab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rccon\Documents\AC\Trab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B270B65-C466-4EAE-A2FF-D2A8B297A15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E2C058-EBBA-4BD3-AE9B-D92E87ED7B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{070A9D18-D015-4E30-8F7F-1FD43C1A297B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{070A9D18-D015-4E30-8F7F-1FD43C1A297B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -218,21 +218,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,56 +549,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB7A44-6D86-485B-AE1C-DF1FE5842785}">
-  <dimension ref="G1:N22"/>
+  <dimension ref="I3:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="5" t="s">
+    <row r="3" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5"/>
+    <row r="4" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,12 +588,10 @@
       <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
@@ -632,9 +611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <v>0</v>
@@ -652,9 +629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
@@ -674,9 +649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>1</v>
@@ -694,9 +667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
@@ -716,9 +687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I10" s="1"/>
       <c r="J10" s="1">
         <v>1</v>
@@ -736,9 +705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
@@ -758,9 +725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I12" s="1"/>
       <c r="J12" s="1">
         <v>1</v>
@@ -771,16 +736,14 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I13" s="1" t="s">
         <v>11</v>
       </c>
@@ -800,7 +763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
@@ -820,7 +783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I15" s="1"/>
       <c r="J15" s="1">
         <v>0</v>
@@ -838,7 +801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
@@ -858,7 +821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I17" s="1"/>
       <c r="J17" s="1">
         <v>1</v>
@@ -876,31 +839,47 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="L18" t="s">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="L20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="L19" t="s">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="L21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="L20" t="s">
+    <row r="22" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="L22" t="s">
         <v>16</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="L21" t="s">
+    <row r="23" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="L23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="L22" t="s">
+    <row r="24" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="L24" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Trab3/Tabela secante 2.2.xlsx
+++ b/Trab3/Tabela secante 2.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rccon\Documents\AC\Trab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISEL\2223\LEIC\s2\AC\Trab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E2C058-EBBA-4BD3-AE9B-D92E87ED7B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F323E57-AEA9-4CD9-B567-4E72F1B88DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{070A9D18-D015-4E30-8F7F-1FD43C1A297B}"/>
+    <workbookView xWindow="1980" yWindow="795" windowWidth="22830" windowHeight="14235" xr2:uid="{070A9D18-D015-4E30-8F7F-1FD43C1A297B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -214,11 +222,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,15 +243,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -549,36 +568,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB7A44-6D86-485B-AE1C-DF1FE5842785}">
-  <dimension ref="I3:N24"/>
+  <dimension ref="H3:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:14" x14ac:dyDescent="0.45">
-      <c r="I3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3" t="s">
+    <row r="3" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="9:14" x14ac:dyDescent="0.45">
-      <c r="I4" s="3"/>
+    <row r="4" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
       <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
@@ -588,10 +608,10 @@
       <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
@@ -611,7 +631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <v>0</v>
@@ -629,7 +649,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H7" s="6"/>
       <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
@@ -649,7 +670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>1</v>
@@ -667,18 +688,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>22</v>
@@ -687,7 +708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I10" s="1"/>
       <c r="J10" s="1">
         <v>1</v>
@@ -705,7 +726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
@@ -725,7 +746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
       <c r="J12" s="1">
         <v>1</v>
@@ -743,7 +764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="s">
         <v>11</v>
       </c>
@@ -763,7 +784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
@@ -783,7 +804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I15" s="1"/>
       <c r="J15" s="1">
         <v>0</v>
@@ -801,7 +822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
@@ -821,7 +842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I17" s="1"/>
       <c r="J17" s="1">
         <v>1</v>
@@ -839,46 +860,47 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.45">
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.45">
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
         <v>16</v>
       </c>
       <c r="N22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L24" t="s">
         <v>18</v>
       </c>
@@ -892,5 +914,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>